--- a/data/trans_dic/P32-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P32-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P32-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P32-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>1,47%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5,92%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3,71%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2,89%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>3,45%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>5,03%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,83%</t>
         </is>
       </c>
     </row>
@@ -724,22 +724,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,86</t>
+          <t>0,0; 8,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,7</t>
+          <t>2,23; 13,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,31</t>
+          <t>1,16; 11,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,42</t>
+          <t>0,0; 10,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,12 +749,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 7,32</t>
+          <t>0,0; 16,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,9</t>
+          <t>0,0; 17,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,22 +764,22 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,94</t>
+          <t>0,0; 5,14</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,0</t>
+          <t>1,91; 10,8</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,58</t>
+          <t>1,56; 9,35</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,94</t>
+          <t>0,0; 6,74</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,97%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>6,64%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3,26%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2,28%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,17%</t>
         </is>
       </c>
     </row>
@@ -864,22 +864,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>0,25; 3,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>4,32; 9,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>1,78; 5,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>0,93; 4,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -889,37 +889,37 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,38</t>
+          <t>0,0; 4,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,26</t>
+          <t>0,55; 5,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>0,7; 4,94</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>0,17; 1,99</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>3,3; 7,23</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>1,79; 4,54</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>1,11; 3,54</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,51%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>1,71; 4,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>3,39; 7,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>3,59; 7,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>3,63; 8,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>0,0; 2,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>0,36; 4,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>1,16; 4,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>2,61; 8,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>1,29; 3,42</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>2,64; 5,5</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>3,05; 6,14</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>3,91; 7,96</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,31%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,92%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>2,39; 7,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>6,01; 11,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>2,97; 7,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>3,89; 10,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,41</t>
+          <t>0,0; 5,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,05</t>
+          <t>0,47; 4,43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,87</t>
+          <t>0,88; 5,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,77</t>
+          <t>0,62; 7,42</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>2,12; 5,59</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>4,61; 8,52</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>2,54; 5,63</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>2,49; 7,59</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,87%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>1,74; 4,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>5,37; 9,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>4,69; 8,93</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>6,38; 12,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,65</t>
+          <t>1,19; 5,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>1,24; 5,25</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>3,14; 7,57</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>0,53; 2,72</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>1,96; 4,54</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>4,08; 7,42</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>4,37; 7,52</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>4,28; 8,22</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,82%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>2,08; 3,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>5,61; 8,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>4,32; 6,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>4,93; 7,55</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>0,8; 2,49</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>1,31; 3,41</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>2,39; 4,53</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>1,7; 4,17</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>1,8; 2,94</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>4,4; 6,01</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>3,84; 5,34</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>3,94; 5,92</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P32-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P32-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,22 +656,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>6,53%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,37 +681,37 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>2,07%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,12</t>
+          <t>0,21; 2,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,23; 13,46</t>
+          <t>4,54; 9,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,16; 11,32</t>
+          <t>1,91; 5,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,96</t>
+          <t>1,16; 4,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>0; 1,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,95</t>
+          <t>0,53; 4,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,34</t>
+          <t>0,9; 5,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>0,54; 4,06</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,14</t>
+          <t>0,28; 1,99</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,91; 10,8</t>
+          <t>3,52; 6,98</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,56; 9,35</t>
+          <t>1,94; 4,68</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,74</t>
+          <t>1,1; 3,37</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>5,5%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,25; 3,06</t>
+          <t>1,71; 4,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,32; 9,84</t>
+          <t>3,39; 7,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,78; 5,77</t>
+          <t>3,59; 7,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,93; 4,35</t>
+          <t>3,61; 9,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,26</t>
+          <t>0,0; 2,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,59</t>
+          <t>0,36; 4,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,55; 5,1</t>
+          <t>1,16; 4,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,7; 4,94</t>
+          <t>2,53; 8,83</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,99</t>
+          <t>1,29; 3,42</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,3; 7,23</t>
+          <t>2,64; 5,5</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,79; 4,54</t>
+          <t>3,05; 6,14</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,11; 3,54</t>
+          <t>3,95; 8,09</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>8,31%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>6,31%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>4,12%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,71; 4,81</t>
+          <t>2,39; 7,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,39; 7,13</t>
+          <t>6,01; 11,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,59; 7,83</t>
+          <t>2,97; 7,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,63; 8,83</t>
+          <t>3,81; 10,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,42</t>
+          <t>0,0; 5,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,36; 4,07</t>
+          <t>0,47; 4,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,16; 4,67</t>
+          <t>0,88; 5,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,61; 8,94</t>
+          <t>0,28; 6,5</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,29; 3,42</t>
+          <t>2,12; 5,59</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,64; 5,5</t>
+          <t>4,61; 8,52</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,05; 6,14</t>
+          <t>2,54; 5,63</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,91; 7,96</t>
+          <t>1,53; 6,76</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,31%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>6,7%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>9,52%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3,01%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>2,91%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
           <t>4,82%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>6,42%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>1,47%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>1,92%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>2,32%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>3,94%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>6,25%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,39; 7,1</t>
+          <t>1,74; 4,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,01; 11,66</t>
+          <t>5,37; 9,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,97; 7,58</t>
+          <t>4,69; 8,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,89; 10,39</t>
+          <t>6,76; 13,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,58</t>
+          <t>1,19; 5,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,47; 4,43</t>
+          <t>1,24; 5,25</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,88; 5,21</t>
+          <t>3,14; 7,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,62; 7,42</t>
+          <t>0,53; 2,66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,12; 5,59</t>
+          <t>1,96; 4,54</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,61; 8,52</t>
+          <t>4,08; 7,42</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,54; 5,63</t>
+          <t>4,37; 7,52</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,49; 7,59</t>
+          <t>4,51; 8,8</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,0%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>4,69%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,74; 4,81</t>
+          <t>2,08; 3,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,37; 9,94</t>
+          <t>5,61; 8,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,69; 8,93</t>
+          <t>4,32; 6,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,38; 12,72</t>
+          <t>4,95; 7,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,19; 5,56</t>
+          <t>0,8; 2,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,24; 5,25</t>
+          <t>1,31; 3,41</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,14; 7,57</t>
+          <t>2,39; 4,53</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,53; 2,72</t>
+          <t>1,19; 3,7</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,96; 4,54</t>
+          <t>1,8; 2,94</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4,08; 7,42</t>
+          <t>4,4; 6,01</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>4,37; 7,52</t>
+          <t>3,84; 5,34</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,28; 8,22</t>
+          <t>3,54; 5,77</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>2,74%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>6,75%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>5,26%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>6,11%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>1,48%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>2,16%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>3,25%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>2,73%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>2,33%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>5,19%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>4,53%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>4,82%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>2,08; 3,61</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>5,61; 8,02</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>4,32; 6,38</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>4,93; 7,55</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0,8; 2,49</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>1,31; 3,41</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>2,39; 4,53</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>1,7; 4,17</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>1,8; 2,94</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>4,4; 6,01</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>3,84; 5,34</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>3,94; 5,92</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P32-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P32-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,22 +725,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,54</t>
+          <t>0,31; 2,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,54; 9,32</t>
+          <t>4,48; 9,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,91; 5,53</t>
+          <t>1,9; 5,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,16; 4,09</t>
+          <t>1,16; 4,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,37 +750,37 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,53; 4,51</t>
+          <t>0,53; 4,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,9; 5,34</t>
+          <t>0,9; 5,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,54; 4,06</t>
+          <t>0,53; 4,1</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,99</t>
+          <t>0,17; 1,8</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,52; 6,98</t>
+          <t>3,56; 7,23</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,94; 4,68</t>
+          <t>1,95; 5,09</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,1; 3,37</t>
+          <t>1,22; 3,53</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,71; 4,81</t>
+          <t>1,65; 4,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,39; 7,13</t>
+          <t>3,26; 7,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,59; 7,83</t>
+          <t>3,78; 7,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,61; 9,06</t>
+          <t>3,64; 8,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,42</t>
+          <t>0,0; 2,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,36; 4,07</t>
+          <t>0,36; 4,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,16; 4,67</t>
+          <t>1,15; 4,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,53; 8,83</t>
+          <t>2,62; 9,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,29; 3,42</t>
+          <t>1,28; 3,25</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,64; 5,5</t>
+          <t>2,59; 5,67</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,05; 6,14</t>
+          <t>3,08; 5,91</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,95; 8,09</t>
+          <t>3,99; 8,01</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,39; 7,1</t>
+          <t>2,43; 7,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,01; 11,66</t>
+          <t>5,86; 11,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,97; 7,58</t>
+          <t>2,91; 7,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,81; 10,28</t>
+          <t>3,9; 9,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,58</t>
+          <t>0,0; 5,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,47; 4,43</t>
+          <t>0,48; 4,8</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,88; 5,21</t>
+          <t>0,89; 4,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,28; 6,5</t>
+          <t>0,2; 6,23</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,12; 5,59</t>
+          <t>2,07; 5,39</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,61; 8,52</t>
+          <t>4,72; 8,91</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,54; 5,63</t>
+          <t>2,64; 5,91</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,53; 6,76</t>
+          <t>1,48; 6,77</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,74; 4,81</t>
+          <t>1,79; 5,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,37; 9,94</t>
+          <t>5,43; 10,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,69; 8,93</t>
+          <t>4,49; 8,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,76; 13,63</t>
+          <t>6,8; 13,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,19; 5,56</t>
+          <t>1,45; 5,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,24; 5,25</t>
+          <t>1,34; 5,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,14; 7,57</t>
+          <t>2,77; 7,37</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,53; 2,66</t>
+          <t>0,5; 2,44</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,96; 4,54</t>
+          <t>1,96; 4,37</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,08; 7,42</t>
+          <t>4,33; 7,56</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,37; 7,52</t>
+          <t>4,48; 7,65</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,51; 8,8</t>
+          <t>4,55; 8,54</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,08; 3,61</t>
+          <t>2,08; 3,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,61; 8,02</t>
+          <t>5,63; 7,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,32; 6,38</t>
+          <t>4,31; 6,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,95; 7,75</t>
+          <t>4,85; 7,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,8; 2,49</t>
+          <t>0,78; 2,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,31; 3,41</t>
+          <t>1,36; 3,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,39; 4,53</t>
+          <t>2,36; 4,51</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,19; 3,7</t>
+          <t>1,19; 3,67</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,8; 2,94</t>
+          <t>1,81; 2,96</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4,4; 6,01</t>
+          <t>4,42; 6,13</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>3,84; 5,34</t>
+          <t>3,78; 5,39</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,54; 5,77</t>
+          <t>3,58; 5,76</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que piensa que debería beber menos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>4606</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>27906</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>14376</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>7636</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2890</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>4555</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>2581</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>4606</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>30796</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>18931</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>10217</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1353; 11686</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>19134; 40522</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>8177; 23588</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>3854; 14486</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1883</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>928; 7776</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1639; 10462</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>841; 6558</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1054; 11183</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>21452; 43546</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>11961; 31178</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>6028; 17406</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>16564</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>29241</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>31947</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>27337</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2172</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>5016</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>7643</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>9966</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>18736</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>34258</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>39590</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>37303</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>9601; 25522</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>19287; 43728</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>21648; 45298</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>17348; 42474</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 7998</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1075; 12553</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>3717; 14513</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>5264; 18076</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>11019; 28015</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>22981; 50363</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>27588; 52855</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>27011; 54313</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>14466</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>38274</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>20507</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>20523</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1919</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>3979</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>5387</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>8374</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>16385</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>42253</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>25894</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>28897</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>8051; 23363</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>27012; 53060</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>12388; 31234</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>12692; 32250</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6830</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>993; 9970</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2061; 11280</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>771; 23419</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>9560; 24867</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>31559; 59514</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>17373; 38859</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>10388; 47462</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>15854</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>42221</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>38340</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>42240</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>9147</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>10820</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>19716</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>3566</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>25001</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>53041</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>58056</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>45805</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>9440; 26623</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>30429; 57251</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>25723; 50095</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>30162; 57954</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>4395; 17974</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>4982; 19227</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>11323; 30158</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1447; 7060</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>16357; 36407</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>40293; 70448</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>43918; 75079</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>33331; 62624</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>51489</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>137642</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>105170</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>97735</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>13239</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>22706</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>37300</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>24487</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>64728</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>160348</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>142471</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>122222</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>39191; 69535</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>114844; 161660</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>86191; 129082</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>76577; 120635</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>6959; 22689</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>14266; 35088</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>27059; 51661</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>12219; 37688</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>50238; 82102</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>136494; 189385</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>118964; 169567</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>93260; 150209</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>